--- a/Compression_test/settings.xlsx
+++ b/Compression_test/settings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsw\Documents\GitHub\OV-PAM_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsw\Documents\GitHub\OV-PAM_model\Compression_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{472DAC96-521F-412F-830C-27925DBF2BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B00384-B30B-4B16-BFC2-6C1236F3318E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16416" xr2:uid="{9CD6A453-A7CD-420C-8E7A-BDF128464B93}"/>
   </bookViews>
@@ -139,8 +139,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,15 +460,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA567414-08EF-414A-878E-384D2865F0F4}">
-  <dimension ref="E10:J25"/>
+  <dimension ref="E10:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E10" t="s">
         <v>0</v>
       </c>
@@ -484,8 +487,23 @@
       <c r="J10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E11" t="s">
         <v>5</v>
       </c>
@@ -505,8 +523,12 @@
         <f>(F11-G11)/F11*100</f>
         <v>58.860759493670891</v>
       </c>
-    </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="L11">
+        <f>H11*L10</f>
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E12" t="s">
         <v>6</v>
       </c>
@@ -527,7 +549,7 @@
         <v>60.624999999999993</v>
       </c>
     </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E13" t="s">
         <v>7</v>
       </c>
@@ -548,7 +570,7 @@
         <v>59.938366718027737</v>
       </c>
     </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E14" t="s">
         <v>8</v>
       </c>
@@ -569,7 +591,7 @@
         <v>61.432506887052341</v>
       </c>
     </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E15" t="s">
         <v>9</v>
       </c>
